--- a/banco_de_dados/vocabulario.xlsx
+++ b/banco_de_dados/vocabulario.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,6 +863,726 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>maelstrom</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>redemoinho</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>underpinning</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>sustentação</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>broadly</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>adverb</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>amplamente</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>to struggle</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>lutar</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>booming</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>crescendo</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>tailoring</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>adaptando, alfaiataria</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>railways</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ferrovias</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>rail travel</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>viagens de trem</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>to shape</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>moldar</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>pivotal</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>fundamental</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>billing</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>cobrança</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>patches</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>remendos</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>enhanced</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>aprimorada</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>embedded</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>integrado</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>to infer</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>inferir</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>scarce</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>escasso</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>despite</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>preposition</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>apesar de</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>to threaten</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>preposition</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ameaçar</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>leverage</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>preposition</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>alavancar, aproveitar</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>coerced</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>coagido</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>deemed</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>considerado</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>attire</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>traje</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>scapegoating</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>bode expiatório</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ostracization</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ostracismo</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>aftermath</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>consequências</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>conflation</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>confusão</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>virulent</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>virulento</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>to pose</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>representar, posar</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>strikingly</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>adverb</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>surpreendentemente</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>fodder</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>alimento, forragem</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>sheer</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>puro</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>emblem</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>emblema</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Negroes</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Negros</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>enslavement</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>escravização</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>brand</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>tipo, marca</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>unshackled</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>livre</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco_de_dados/vocabulario.xlsx
+++ b/banco_de_dados/vocabulario.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,6 +1583,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>infringement</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>violação</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>inextricable</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>adjective</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>inextricável</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>outrage</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ultraje</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>vitriol</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>noun</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vitríolo</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>towards</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>preposition</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>em relação</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>refrain</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>verb</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>abster</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
